--- a/python/df_distance_km.xlsx
+++ b/python/df_distance_km.xlsx
@@ -1,43 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Cliente_1</t>
+  </si>
+  <si>
+    <t>Cliente_2</t>
+  </si>
+  <si>
+    <t>Cliente_3</t>
+  </si>
+  <si>
+    <t>Cliente_4</t>
+  </si>
+  <si>
+    <t>Cliente_5</t>
+  </si>
+  <si>
+    <t>Cliente_6</t>
+  </si>
+  <si>
+    <t>Cliente_7</t>
+  </si>
+  <si>
+    <t>Cliente_8</t>
+  </si>
+  <si>
+    <t>Cliente_9</t>
+  </si>
+  <si>
+    <t>Cliente_10</t>
+  </si>
+  <si>
+    <t>Cliente_11</t>
+  </si>
+  <si>
+    <t>Cliente_12</t>
+  </si>
+  <si>
+    <t>Cliente_13</t>
+  </si>
+  <si>
+    <t>Cliente_14</t>
+  </si>
+  <si>
+    <t>Cliente_15</t>
+  </si>
+  <si>
+    <t>Cliente_16</t>
+  </si>
+  <si>
+    <t>Cliente_17</t>
+  </si>
+  <si>
+    <t>Cliente_18</t>
+  </si>
+  <si>
+    <t>Cliente_19</t>
+  </si>
+  <si>
+    <t>Cliente_20</t>
+  </si>
+  <si>
+    <t>Almacén</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +116,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +180,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +221,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +309,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +365,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +374,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +383,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +391,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +423,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +436,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,1492 +459,1470 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_6</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_7</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_8</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_9</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_11</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_12</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_13</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_14</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_15</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_16</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_17</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_18</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_19</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente_20</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Almacén</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>7.5625</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>15.5365</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4">
         <v>1.1998</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4">
         <v>4.7145</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>1.7407</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4">
         <v>7.9408</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4">
         <v>17.1947</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="4">
         <v>4.2933</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="4">
         <v>3.2659</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4">
         <v>2.1866</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="4">
         <v>6.0225</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="4">
         <v>5.447</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="4">
         <v>2.2133</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="4">
         <v>11.1505</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="4">
         <v>1.5775</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="4">
         <v>10.8288</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="4">
         <v>9.1456</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="4">
         <v>20.4871</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="4">
         <v>22.1445</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="4">
         <v>3.6114</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
         <v>7.5625</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
         <v>3.3838</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>7.743300000000001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4">
         <v>14.572</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>8.523700000000002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4">
         <v>0.4847</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4">
         <v>13.7974</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4">
         <v>10.1522</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4">
         <v>7.152100000000001</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4">
         <v>14.8113</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4">
         <v>10.1049</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4">
         <v>2.6961</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="4">
         <v>13.4907</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="4">
         <v>18.0835</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="4">
         <v>7.0275</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="4">
         <v>19.8218</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="4">
         <v>8.273700000000002</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="4">
         <v>9.636899999999999</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="4">
         <v>19.1038</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="4">
         <v>10.7361</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
         <v>15.5365</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4">
         <v>3.3838</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>12.5438</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>16.0355</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4">
         <v>13.912</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="4">
         <v>13.0649</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4">
         <v>17.0494</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4">
         <v>12.343</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4">
         <v>5.0114</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="4">
         <v>15.7289</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="4">
         <v>17.9217</v>
       </c>
-      <c r="P4" t="n">
-        <v>9.682399999999999</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P4" s="4">
+        <v>9.6824</v>
+      </c>
+      <c r="Q4" s="4">
         <v>22.0599</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="4">
         <v>10.5118</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="4">
         <v>7.7574</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="4">
         <v>16.5997</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="4">
         <v>13.9021</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4">
         <v>1.1998</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4">
         <v>7.743300000000001</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>12.5438</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>5.072100000000001</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4">
         <v>0.9118999999999999</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4">
         <v>7.579800000000001</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4">
         <v>17.4095</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="4">
         <v>3.5781</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="4">
         <v>3.3451</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="4">
         <v>2.8532</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="4">
         <v>6.233</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="4">
         <v>4.7117</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="4">
         <v>2.8799</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="4">
         <v>11.361</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="4">
         <v>1.3127</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="4">
         <v>11.1926</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="4">
         <v>9.3561</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="4">
         <v>20.7019</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="4">
         <v>21.1518</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="4">
         <v>3.3673</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
         <v>4.7145</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4">
         <v>14.572</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>5.072100000000001</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>4.8187</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>7.217</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4">
         <v>2.6253</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4">
         <v>6.8738</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="4">
         <v>9.106399999999999</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="4">
         <v>3.6476</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="4">
         <v>12.0019</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="4">
         <v>5.434699999999999</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="4">
         <v>5.287199999999999</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="4">
         <v>9.9969</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="4">
         <v>21.3384</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="4">
         <v>25.5947</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="4">
         <v>4.5417</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
         <v>1.7407</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4">
         <v>8.523700000000002</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.9118999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4">
         <v>4.8187</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>7.8866</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4">
         <v>20.0472</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4">
         <v>2.906</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="4">
         <v>4.0899</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4">
         <v>2.889</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="4">
         <v>8.875</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="4">
         <v>5.0185</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="4">
         <v>3.2185</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="4">
         <v>14.003</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="4">
         <v>2.0575</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="4">
         <v>11.4008</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="4">
         <v>11.9981</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="4">
         <v>19.7467</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="4">
         <v>20.4797</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" s="4">
         <v>2.6952</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4">
         <v>7.9408</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4">
         <v>0.4847</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>7.579800000000001</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>7.8866</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>13.9893</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4">
         <v>10.1499</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="4">
         <v>7.344</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="4">
         <v>15.0032</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4">
         <v>10.2968</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
         <v>7.219399999999999</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="4">
         <v>20.0138</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="4">
         <v>8.4656</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="4">
         <v>9.828899999999999</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="4">
         <v>17.1722</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" s="4">
         <v>10.928</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
         <v>17.1947</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4">
         <v>13.7974</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4">
         <v>16.0355</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4">
         <v>17.4095</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>20.0472</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4">
         <v>13.9893</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>19.6963</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="4">
         <v>12.9161</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="4">
         <v>16.1829</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4">
         <v>12.3127</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="4">
         <v>13.5906</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="4">
         <v>14.8623</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="4">
         <v>5.9742</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="4">
         <v>14.6038</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="4">
         <v>22.6587</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="4">
         <v>8.9984</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="4">
         <v>15.5515</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="4">
         <v>34.1368</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="4">
         <v>20.8703</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4">
         <v>4.2933</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4">
         <v>10.1522</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4">
         <v>13.912</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4">
         <v>3.5781</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>2.906</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4">
         <v>10.1499</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4">
         <v>19.6963</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <v>6.8679</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="4">
         <v>3.5313</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="4">
         <v>10.1024</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="4">
         <v>7.722899999999999</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="4">
         <v>4.5536</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="4">
         <v>15.2304</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="4">
         <v>4.8355</v>
       </c>
-      <c r="Q10" t="n">
-        <v>9.756500000000001</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q10" s="4">
+        <v>9.7565</v>
+      </c>
+      <c r="R10" s="4">
         <v>13.2255</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="4">
         <v>24.567</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="4">
         <v>22.9781</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" s="4">
         <v>1.0494</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
         <v>3.2659</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4">
         <v>7.152100000000001</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4">
         <v>13.0649</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4">
         <v>3.3451</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4">
         <v>7.217</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4">
         <v>4.0899</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4">
         <v>7.344</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="4">
         <v>12.9161</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4">
         <v>6.8679</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>4.7283</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="4">
         <v>2.3061</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="4">
         <v>4.9896</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
         <v>8.2196</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
         <v>10.8948</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="4">
         <v>5.305</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="4">
         <v>17.5604</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="4">
         <v>21.1407</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="4">
         <v>5.9516</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4">
         <v>2.1866</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="4">
         <v>14.8113</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4">
         <v>17.0494</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4">
         <v>2.8532</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="4">
         <v>2.6253</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4">
         <v>2.889</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4">
         <v>15.0032</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="4">
         <v>16.1829</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="4">
         <v>3.5313</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="4">
         <v>4.7283</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <v>6.5845</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="4">
         <v>8.2105</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="4">
         <v>1.6099</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="4">
         <v>11.7126</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="4">
         <v>3.397</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="4">
         <v>7.7031</v>
       </c>
-      <c r="R12" t="n">
-        <v>9.707700000000001</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="R12" s="4">
+        <v>9.7077</v>
+      </c>
+      <c r="S12" s="4">
         <v>21.0492</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="4">
         <v>22.484</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="4">
         <v>2.912</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4">
         <v>6.0225</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="4">
         <v>10.1049</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4">
         <v>12.343</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4">
         <v>6.233</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4">
         <v>6.8738</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4">
         <v>8.875</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4">
         <v>10.2968</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="4">
         <v>12.3127</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4">
         <v>10.1024</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="4">
         <v>2.3061</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="4">
         <v>6.5845</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <v>6.4451</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="4">
         <v>5.9051</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="4">
         <v>5.6418</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="4">
         <v>4.2199</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="4">
         <v>12.2362</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="4">
         <v>5.1248</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="4">
         <v>16.4706</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="4">
         <v>22.5962</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="4">
         <v>10.2374</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4">
         <v>5.447</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="4">
         <v>2.6961</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4">
         <v>5.0114</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4">
         <v>4.7117</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4">
         <v>9.106399999999999</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4">
         <v>5.0185</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <v>13.5906</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="4">
         <v>7.722899999999999</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="4">
         <v>4.9896</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="4">
         <v>8.2105</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="4">
         <v>6.4451</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
         <v>10.0708</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="4">
         <v>10.0675</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="4">
         <v>4.2809</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="4">
         <v>15.2069</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="4">
         <v>6.286899999999999</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="4">
         <v>12.4538</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="4">
         <v>17.7187</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="4">
         <v>7.9895</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4">
         <v>2.2133</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="4">
         <v>13.4907</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4">
         <v>15.7289</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4">
         <v>2.8799</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4">
         <v>3.6476</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4">
         <v>3.2185</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>14.8623</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="4">
         <v>4.5536</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
         <v>1.6099</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="4">
         <v>5.9051</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="4">
         <v>10.0708</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
         <v>8.603299999999999</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="4">
         <v>19.9448</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="4">
         <v>23.8969</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="4">
         <v>4.0306</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4">
         <v>11.1505</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="4">
         <v>18.0835</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4">
         <v>17.9217</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4">
         <v>11.361</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4">
         <v>12.0019</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="4">
         <v>14.003</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
         <v>5.9742</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4">
         <v>15.2304</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="4">
         <v>8.2196</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="4">
         <v>11.7126</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="4">
         <v>5.6418</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="4">
         <v>10.0675</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
         <v>10.6147</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="4">
         <v>21.7754</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="4">
         <v>5.1865</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16" s="4">
         <v>18.4207</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" s="4">
         <v>37.006</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" s="4">
         <v>15.6084</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4">
         <v>1.5775</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="4">
         <v>7.0275</v>
       </c>
-      <c r="C17" t="n">
-        <v>9.682399999999999</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" s="4">
+        <v>9.6824</v>
+      </c>
+      <c r="D17" s="4">
         <v>1.3127</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="4">
         <v>5.434699999999999</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="4">
         <v>2.0575</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4">
         <v>7.219399999999999</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="4">
         <v>14.6038</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="4">
         <v>4.8355</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
         <v>3.397</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="4">
         <v>4.2199</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="4">
         <v>4.2809</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
         <v>10.6147</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
         <v>11.3728</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="4">
         <v>8.927700000000002</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" s="4">
         <v>20.2735</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="4">
         <v>21.0351</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" s="4">
         <v>4.155399999999999</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4">
         <v>10.8288</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="4">
         <v>19.8218</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4">
         <v>22.0599</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4">
         <v>11.1926</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="4">
         <v>5.287199999999999</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="4">
         <v>11.4008</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4">
         <v>20.0138</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="4">
         <v>22.6587</v>
       </c>
-      <c r="I18" t="n">
-        <v>9.756500000000001</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="I18" s="4">
+        <v>9.7565</v>
+      </c>
+      <c r="J18" s="4">
         <v>10.8948</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="4">
         <v>7.7031</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="4">
         <v>12.2362</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="4">
         <v>15.2069</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
         <v>21.7754</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="4">
         <v>11.3728</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
         <v>14.8006</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="4">
         <v>26.1421</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="4">
         <v>30.6412</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" s="4">
         <v>8.5221</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="4">
         <v>9.1456</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="4">
         <v>8.273700000000002</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4">
         <v>10.5118</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4">
         <v>9.3561</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="4">
         <v>9.9969</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="4">
         <v>11.9981</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4">
         <v>8.4656</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="4">
         <v>8.9984</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="4">
         <v>13.2255</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="4">
         <v>5.305</v>
       </c>
-      <c r="K19" t="n">
-        <v>9.707700000000001</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="K19" s="4">
+        <v>9.7077</v>
+      </c>
+      <c r="L19" s="4">
         <v>5.1248</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="4">
         <v>6.286899999999999</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="4">
         <v>8.603299999999999</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="4">
         <v>5.1865</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="4">
         <v>8.927700000000002</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="4">
         <v>14.8006</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
         <v>14.7105</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="4">
         <v>24.3734</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" s="4">
         <v>13.2923</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4">
         <v>20.4871</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="4">
         <v>9.636899999999999</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="4">
         <v>7.7574</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4">
         <v>20.7019</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="4">
         <v>21.3384</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4">
         <v>19.7467</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4">
         <v>9.828899999999999</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="4">
         <v>15.5515</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="4">
         <v>24.567</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="4">
         <v>17.5604</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="4">
         <v>21.0492</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="4">
         <v>16.4706</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="4">
         <v>12.4538</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="4">
         <v>19.9448</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="4">
         <v>18.4207</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="4">
         <v>20.2735</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="4">
         <v>26.1421</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="4">
         <v>14.7105</v>
       </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
         <v>24.1215</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20" s="4">
         <v>22.0368</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4">
         <v>22.1445</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="4">
         <v>19.1038</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4">
         <v>16.5997</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4">
         <v>21.1518</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="4">
         <v>25.5947</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="4">
         <v>20.4797</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4">
         <v>17.1722</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="4">
         <v>34.1368</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="4">
         <v>22.9781</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="4">
         <v>21.1407</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="4">
         <v>22.484</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="4">
         <v>22.5962</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="4">
         <v>17.7187</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" s="4">
         <v>23.8969</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="4">
         <v>37.006</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21" s="4">
         <v>21.0351</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="4">
         <v>30.6412</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="4">
         <v>24.3734</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="4">
         <v>24.1215</v>
       </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
         <v>14.8282</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4">
         <v>3.6114</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="4">
         <v>10.7361</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="4">
         <v>13.9021</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4">
         <v>3.3673</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="4">
         <v>4.5417</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="4">
         <v>2.6952</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4">
         <v>10.928</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="4">
         <v>20.8703</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="4">
         <v>1.0494</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="4">
         <v>5.9516</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="4">
         <v>2.912</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="4">
         <v>10.2374</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="4">
         <v>7.9895</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" s="4">
         <v>4.0306</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="4">
         <v>15.6084</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="4">
         <v>4.155399999999999</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="4">
         <v>8.5221</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22" s="4">
         <v>13.2923</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22" s="4">
         <v>22.0368</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22" s="4">
         <v>14.8282</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>